--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -58,96 +61,111 @@
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -166,16 +184,16 @@
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>learn</t>
@@ -563,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -682,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.8494623655913979</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7096774193548387</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6351351351351351</v>
+        <v>0.65625</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6181818181818182</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.5667144906743186</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L9">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M9">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.616504854368932</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.533195020746888</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="M10">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.4745901639344262</v>
+        <v>0.4688524590163934</v>
       </c>
       <c r="L11">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M11">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.3544973544973545</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>122</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5159420289855072</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.35</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4457831325301205</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.3493975903614458</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4453125</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.3486238532110092</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>213</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4210526315789473</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.265625</v>
+        <v>0.28125</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4028436018957346</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4015748031496063</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.2473118279569892</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3069306930693069</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.1967871485943775</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2628865979381443</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,31 +1518,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.1649122807017544</v>
+        <v>0.1831726555652936</v>
       </c>
       <c r="L20">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M20">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2246835443037975</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,28 +1568,28 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.1096256684491979</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21">
         <v>41</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>333</v>
@@ -1582,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.21</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1600,31 +1618,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.1064935064935065</v>
+        <v>0.09635416666666667</v>
       </c>
       <c r="L22">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="M22">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1376</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1974522292993631</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.1002785515320334</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,37 +1700,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1959654178674352</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>87</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
-      </c>
-      <c r="F24">
-        <v>0.99</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>279</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K24">
-        <v>0.06559571619812583</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>0.91</v>
@@ -1724,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1920289855072464</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1750,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>223</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1758,25 +1776,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1887072808320951</v>
+        <v>0.225</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>546</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1784,13 +1802,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1708860759493671</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1802,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1810,25 +1828,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1655629139072848</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C28">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>378</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1836,13 +1854,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1542056074766355</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1854,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>181</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1862,25 +1880,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1203007518796992</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1888,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.09641255605381166</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="C31">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>403</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1914,25 +1932,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09065934065934066</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>331</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1940,25 +1958,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08745874587458746</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>553</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1966,25 +1984,181 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0586734693877551</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E34">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>738</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1086142322097378</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.08520179372197309</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.08415841584158416</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>0.04</v>
+      </c>
+      <c r="F37">
+        <v>0.96</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.08192090395480225</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>0.03</v>
+      </c>
+      <c r="F38">
+        <v>0.97</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.06138107416879796</v>
+      </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39">
+        <v>0.8</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.06</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0.11</v>
+      </c>
+      <c r="F40">
+        <v>0.89</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
